--- a/Documents/CPU Usage Peaks.xlsx
+++ b/Documents/CPU Usage Peaks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Personal\Public\RP2040-DSP-Public\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Personal\RP2040-DPS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6E783A-D503-4CE9-9C06-AECD55425BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B65EF-AE8C-40D8-A261-079E23CA5EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="0" windowWidth="17205" windowHeight="21000" xr2:uid="{CA43B2E9-7B6D-45B2-BA65-85FB31FB8CC0}"/>
+    <workbookView xWindow="17190" yWindow="0" windowWidth="21510" windowHeight="21000" xr2:uid="{CA43B2E9-7B6D-45B2-BA65-85FB31FB8CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>Effect</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>No Effect Enabled</t>
-  </si>
-  <si>
     <t>Peak</t>
   </si>
   <si>
@@ -150,7 +147,16 @@
     <t>Effect / Samples</t>
   </si>
   <si>
-    <t>*Artifacts</t>
+    <t>Pre - Fend</t>
+  </si>
+  <si>
+    <t>Pre - VOX</t>
+  </si>
+  <si>
+    <t>Pre - Marsh</t>
+  </si>
+  <si>
+    <t>Pre - Sol</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,8 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,7 +567,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$31</c:f>
+              <c:f>Sheet1!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,7 +590,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -611,7 +617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -622,16 +628,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-9.9999999999999985E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-9.9999999999999985E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.9999999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +651,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
+              <c:f>Sheet1!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -671,7 +674,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -698,7 +701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$H$32</c:f>
+              <c:f>Sheet1!$C$36:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -706,18 +709,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.13999999999999999</c:v>
+                  <c:v>-4.0000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.13999999999999999</c:v>
+                  <c:v>-7.9999999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>-0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -735,7 +735,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$33</c:f>
+              <c:f>Sheet1!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -758,7 +758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -785,7 +785,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:f>Sheet1!$C$37:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -793,19 +793,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-9.999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0000000000000017E-2</c:v>
+                  <c:v>-9.999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.0000000000000016E-2</c:v>
+                  <c:v>-3.0000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27</c:v>
+                  <c:v>-9.9999999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +819,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$34</c:f>
+              <c:f>Sheet1!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +842,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -872,7 +869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$H$34</c:f>
+              <c:f>Sheet1!$C$38:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -880,19 +877,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>-1.9999999999999962E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16999999999999998</c:v>
+                  <c:v>-6.9999999999999951E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23000000000000004</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.36000000000000004</c:v>
+                  <c:v>-0.19999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +903,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$35</c:f>
+              <c:f>Sheet1!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -932,7 +926,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -959,7 +953,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$H$35</c:f>
+              <c:f>Sheet1!$C$39:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -967,19 +961,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9999999999999962E-2</c:v>
+                  <c:v>-9.9999999999999811E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9999999999999962E-2</c:v>
+                  <c:v>-1.999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.9999999999999969E-2</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +987,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
+              <c:f>Sheet1!$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1019,7 +1010,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1046,7 +1037,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$H$36</c:f>
+              <c:f>Sheet1!$C$40:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1054,19 +1045,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.03</c:v>
+                  <c:v>-2.0000000000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.0000000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.9999999999999979E-2</c:v>
+                  <c:v>-2.0000000000000018E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1071,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
+              <c:f>Sheet1!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1108,7 +1096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1135,7 +1123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:f>Sheet1!$C$41:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1149,13 +1137,10 @@
                   <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>-1.999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,7 +1157,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
+              <c:f>Sheet1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1182,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1224,7 +1209,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$H$38</c:f>
+              <c:f>Sheet1!$C$42:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1232,19 +1217,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9999999999999534E-3</c:v>
+                  <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9999999999999962E-2</c:v>
+                  <c:v>-3.0000000000000027E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-4.9999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1243,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
+              <c:f>Sheet1!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,7 +1268,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1313,7 +1295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$H$39</c:f>
+              <c:f>Sheet1!$C$43:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1324,16 +1306,13 @@
                   <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.0000000000000027E-2</c:v>
+                  <c:v>-2.0000000000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3.0000000000000027E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.0000000000000044E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.11000000000000004</c:v>
+                  <c:v>-3.0000000000000027E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,7 +1329,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$40</c:f>
+              <c:f>Sheet1!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1375,7 +1354,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1402,7 +1381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$40:$H$40</c:f>
+              <c:f>Sheet1!$C$44:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1410,19 +1389,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>-1.9999999999999962E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>-4.9999999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.0000000000000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-0.21999999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1415,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
+              <c:f>Sheet1!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1464,7 +1440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1491,7 +1467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$H$41</c:f>
+              <c:f>Sheet1!$C$45:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1499,19 +1475,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.9999999999999916E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-3.9999999999999925E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-3.9999999999999925E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,7 +1501,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
+              <c:f>Sheet1!$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,7 +1526,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1580,7 +1553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$H$42</c:f>
+              <c:f>Sheet1!$C$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1588,19 +1561,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9999999999998979E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.9999999999999907E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9999999999999907E-2</c:v>
+                  <c:v>-2.9999999999999916E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-3.9999999999999925E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.9999999999999969E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,7 +1587,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$43</c:f>
+              <c:f>Sheet1!$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1643,7 +1613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1670,7 +1640,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$H$43</c:f>
+              <c:f>Sheet1!$C$47:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1681,16 +1651,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9999999999999534E-3</c:v>
+                  <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.9999999999999534E-3</c:v>
+                  <c:v>-2.0000000000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.9999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.999999999999996E-2</c:v>
+                  <c:v>-2.9999999999999971E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,7 +1674,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$44</c:f>
+              <c:f>Sheet1!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1733,7 +1700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1760,7 +1727,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$H$44</c:f>
+              <c:f>Sheet1!$C$48:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1768,19 +1735,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0000000000000009E-2</c:v>
+                  <c:v>-2.0000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1</c:v>
+                  <c:v>-2.0000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1761,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
+              <c:f>Sheet1!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,7 +1787,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1850,7 +1814,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$H$45</c:f>
+              <c:f>Sheet1!$C$49:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1867,9 +1831,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2721,13 +2682,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>509866</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>169207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3053,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626ACF4-E891-4F90-93C7-407D63D6F1FF}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,11 +3025,11 @@
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
@@ -3091,13 +3052,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="26">
         <v>48000</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3105,1639 +3066,1748 @@
         <v>17</v>
       </c>
       <c r="B2" s="11">
-        <v>45881</v>
+        <v>45902</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="29">
         <v>250</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="14">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="14">
         <v>128</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14">
         <v>64</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="14">
         <v>32</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="I6" s="14">
+        <v>24</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="14">
         <v>16</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="14">
+      <c r="L6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="14">
         <v>8</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="N6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="I7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="13" t="s">
+      <c r="M7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="35">
-        <v>0.03</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="35">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="35">
-        <v>0.06</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0.16</v>
-      </c>
-      <c r="D8" s="4">
-        <f>C8-$C$7</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0.17</v>
-      </c>
-      <c r="F8" s="4">
-        <f>E8-$E$7</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="4">
-        <f>G8-$G$7</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="4">
-        <f>I8-$I$7</f>
-        <v>0.27</v>
-      </c>
-      <c r="K8" s="36">
-        <v>0.23</v>
-      </c>
-      <c r="L8" s="4">
-        <f>K8-$K$7</f>
-        <v>0.19</v>
-      </c>
-      <c r="M8" s="36">
-        <v>0.26</v>
-      </c>
-      <c r="N8" s="4">
-        <f>M8-$K$7</f>
-        <v>0.22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="36">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:D21" si="0">C9-$C$7</f>
-        <v>0.13</v>
+        <f>C9-$E$8</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="36">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F21" si="1">E9-$E$7</f>
-        <v>0.13</v>
+        <f>E9-$E$8</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G9" s="36">
         <v>0.2</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" ref="H9:H21" si="2">G9-$G$7</f>
+        <f>G9-$E$8</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="I9" s="36">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J20" si="3">I9-$I$7</f>
-        <v>0.2</v>
+        <f>I9-$I$8</f>
+        <v>0.21</v>
       </c>
       <c r="K9" s="36">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" ref="L9:L21" si="4">K9-$K$7</f>
-        <v>0.34</v>
+        <f>K9-$E$8</f>
+        <v>0.24000000000000002</v>
       </c>
       <c r="M9" s="36">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:N21" si="5">M9-$K$7</f>
-        <v>0.38</v>
+        <f>M9-$E$8</f>
+        <v>0.19</v>
       </c>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:H25" si="0">C10-$E$8</f>
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J25" si="1">I10-$I$8</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L25" si="2">K10-$E$8</f>
+        <v>0.19</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N25" si="3">M10-$E$8</f>
+        <v>0.17</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C11" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="E11" s="36">
         <v>0.42</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E10" s="36">
-        <v>0.43</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="G11" s="36">
+        <v>0.47</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>0.41</v>
-      </c>
-      <c r="G10" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M13" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.24</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="M18" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="M19" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="M20" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I22" s="36">
         <v>0.59</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0.65</v>
-      </c>
-      <c r="J10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M22" s="38">
+        <v>0.62</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="3"/>
-        <v>0.62</v>
-      </c>
-      <c r="K10" s="36">
-        <v>0.67</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63</v>
-      </c>
-      <c r="M10" s="38">
-        <v>0.78</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="5"/>
-        <v>0.74</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="G23" s="36">
         <v>0.27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E11" s="36">
+      <c r="I23" s="36">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="G11" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="K23" s="36">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H11" s="4">
+      <c r="L23" s="4">
         <f t="shared" si="2"/>
         <v>0.26999999999999996</v>
       </c>
-      <c r="I11" s="36">
+      <c r="M23" s="36">
+        <v>0.31</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="3"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J11" s="4">
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="G24" s="36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="K11" s="36">
-        <v>0.31</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="4"/>
-        <v>0.27</v>
-      </c>
-      <c r="M11" s="36">
-        <v>0.36</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="5"/>
-        <v>0.32</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0.22</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0.24</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.22</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="3"/>
-        <v>0.22</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0.26</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.22</v>
-      </c>
-      <c r="M12" s="36">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="5"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="36">
         <v>0.19</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0.19</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="G13" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="I13" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.17</v>
-      </c>
-      <c r="K13" s="36">
-        <v>0.21</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="4"/>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="M13" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.21</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0.34</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0.34</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0.36</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="K14" s="36">
-        <v>0.39</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="M14" s="36">
-        <v>0.42</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="5"/>
-        <v>0.38</v>
-      </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0.36</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0.38</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.36</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0.38</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.35</v>
-      </c>
-      <c r="K15" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="4"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="M15" s="36">
-        <v>0.46</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="5"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
-      </c>
-      <c r="K16" s="36">
-        <v>0.33</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="4"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0.36</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="5"/>
-        <v>0.32</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="4">
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>-0.02</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="4">
+      <c r="E25" s="37"/>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.02</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="4">
         <f t="shared" si="1"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="K25" s="37"/>
+      <c r="L25" s="4">
         <f t="shared" si="2"/>
         <v>-0.02</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="4">
+      <c r="M25" s="37"/>
+      <c r="N25" s="4">
         <f t="shared" si="3"/>
-        <v>-0.03</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.04</v>
-      </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.04</v>
-      </c>
-      <c r="O17" s="6" t="s">
+        <v>-0.02</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19">
+        <f>C6/$E$1*1000</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="19">
+        <f>E6/$E$1*1000</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="19">
+        <f>G6/$E$1*1000</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="19">
+        <f>I6/$E$1*1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="19">
+        <f>K6/$E$1*1000</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="19">
+        <f>M6/$E$1*1000</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="20">
+        <f>C26*2</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20">
+        <f>E26*2</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="20">
+        <f>G26*2</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="20">
+        <f>I26*2</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="20">
+        <f>K26*2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="20">
+        <f>M26*2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19">
+        <f>$E$2/C28</f>
+        <v>1.639344262295082</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="19">
+        <f>$E$2/E28</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="19">
+        <f>$E$2/G28</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19">
+        <f>$E$2/I28</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="19">
+        <f>$E$2/K28</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="19">
+        <f>$E$2/M28</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20">
+        <f>ROUNDUP(C29,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="20">
+        <f>ROUNDUP(E29,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="20">
+        <f>ROUNDUP(G29,0)</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="20">
+        <f>ROUNDUP(I29,0)</f>
+        <v>6</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="20">
+        <f>ROUNDUP(K29,0)</f>
+        <v>7</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="20">
+        <f>ROUNDUP(M29,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <f>C30*C28</f>
+        <v>12.2</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10">
+        <f>E30*E28</f>
+        <v>10.5</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="10">
+        <f>G30*G28</f>
         <v>11</v>
       </c>
-      <c r="C18" s="36">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="E18" s="36">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="G18" s="36">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="2"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="3"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="K18" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="L18" s="39">
-        <f t="shared" si="4"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="M18" s="38">
-        <v>0.65</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="5"/>
-        <v>0.61</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="36">
-        <v>0.34</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="E19" s="36">
-        <v>0.34</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-      <c r="G19" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="I19" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="3"/>
-        <v>0.31999999999999995</v>
-      </c>
-      <c r="K19" s="36">
-        <v>0.39</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="M19" s="36">
-        <v>0.42</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="5"/>
-        <v>0.38</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0.06</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="E20" s="36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="G20" s="36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="I20" s="36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="K20" s="36">
-        <v>0.13</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
-      </c>
-      <c r="M20" s="36">
-        <v>0.16</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
+      <c r="H31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="10">
+        <f>I30*I28</f>
+        <v>10.8</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="10">
+        <f>K30*K28</f>
+        <v>10.5</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="10">
+        <f>M30*M28</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="30"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="32">
+        <f>C6</f>
+        <v>128</v>
+      </c>
+      <c r="D34" s="32">
+        <f>E6</f>
+        <v>64</v>
+      </c>
+      <c r="E34" s="32">
+        <f>G6</f>
+        <v>32</v>
+      </c>
+      <c r="F34" s="32">
+        <f>I6</f>
+        <v>24</v>
+      </c>
+      <c r="G34" s="32">
+        <f>K6</f>
+        <v>16</v>
+      </c>
+      <c r="H34" s="33">
+        <f>M6</f>
+        <v>8</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="34">
+        <f t="shared" ref="C35:C44" si="4">$C8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" ref="D35:D44" si="5">$C8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
+        <f t="shared" ref="E35:E44" si="6">$C8-G8</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="F35" s="34">
+        <f t="shared" ref="F35:F44" si="7">$C8-I8</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="G35" s="34">
+        <f t="shared" ref="G35:G44" si="8">$C8-K8</f>
         <v>-0.02</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.02</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="4">
-        <f>I21-$I$7</f>
-        <v>-0.03</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.04</v>
-      </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.04</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="19">
-        <f>C5/$E$1*1000</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="19">
-        <f>E5/$E$1*1000</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="19">
-        <f>G5/$E$1*1000</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="19">
-        <f>I5/$E$1*1000</f>
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="19">
-        <f>K5/$E$1*1000</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="19">
-        <f>M5/$E$1*1000</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="20">
-        <f>C22*2</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="20">
-        <f>E22*2</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="20">
-        <f>G22*2</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="20">
-        <f>I22*2</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="20">
-        <f>K22*2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="20">
-        <f>M22*2</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="19">
-        <f>$E$2/C24</f>
-        <v>1.639344262295082</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="19">
-        <f>$E$2/E24</f>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="19">
-        <f>$E$2/G24</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="19">
-        <f>$E$2/I24</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="19">
-        <f>$E$2/K24</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="19">
-        <f>$E$2/M24</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="20">
-        <f>ROUNDUP(C25,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="20">
-        <f>ROUNDUP(E25,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="20">
-        <f>ROUNDUP(G25,0)</f>
-        <v>5</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="20">
-        <f>ROUNDUP(I25,0)</f>
-        <v>6</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="20">
-        <f>ROUNDUP(K25,0)</f>
-        <v>7</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="20">
-        <f>ROUNDUP(M25,0)</f>
-        <v>9</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
-        <f>C26*C24</f>
-        <v>12.2</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="10">
-        <f>E26*E24</f>
-        <v>10.5</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="10">
-        <f>G26*G24</f>
-        <v>11</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="10">
-        <f>I26*I24</f>
-        <v>10.8</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="10">
-        <f>K26*K24</f>
-        <v>10.5</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="10">
-        <f>M26*M24</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M28" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="32">
-        <f>C5</f>
-        <v>128</v>
-      </c>
-      <c r="D30" s="32">
-        <f>E5</f>
-        <v>64</v>
-      </c>
-      <c r="E30" s="32">
-        <f>G5</f>
-        <v>32</v>
-      </c>
-      <c r="F30" s="32">
-        <f>I5</f>
-        <v>24</v>
-      </c>
-      <c r="G30" s="32">
-        <f>K5</f>
-        <v>16</v>
-      </c>
-      <c r="H30" s="33">
-        <f>M5</f>
-        <v>8</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="34">
-        <f>$C7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="34">
-        <f t="shared" ref="D31:D45" si="6">$C7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="34">
-        <f t="shared" ref="E31:E45" si="7">$C7-G7</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
-        <f t="shared" ref="F31:F45" si="8">$C7-I7</f>
-        <v>-9.9999999999999985E-3</v>
-      </c>
-      <c r="G31" s="34">
-        <f t="shared" ref="G31:G45" si="9">$C7-K7</f>
-        <v>-0.02</v>
-      </c>
-      <c r="H31" s="34">
-        <f t="shared" ref="H31:H45" si="10">$C7-M7</f>
-        <v>-3.9999999999999994E-2</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="34">
-        <f t="shared" ref="C32:C45" si="11">$C8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="34">
-        <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E32" s="34">
-        <f t="shared" si="7"/>
-        <v>-0.13999999999999999</v>
-      </c>
-      <c r="F32" s="34">
-        <f t="shared" si="8"/>
-        <v>-0.13999999999999999</v>
-      </c>
-      <c r="G32" s="34">
-        <f t="shared" si="9"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H32" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="N32" s="31"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="34">
-        <f t="shared" si="7"/>
-        <v>-5.0000000000000017E-2</v>
-      </c>
-      <c r="F33" s="34">
-        <f t="shared" si="8"/>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="G33" s="34">
-        <f t="shared" si="9"/>
-        <v>-0.23</v>
-      </c>
-      <c r="H33" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.27</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="34">
-        <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E34" s="34">
-        <f t="shared" si="7"/>
-        <v>-0.16999999999999998</v>
-      </c>
-      <c r="F34" s="34">
-        <f t="shared" si="8"/>
-        <v>-0.23000000000000004</v>
-      </c>
-      <c r="G34" s="34">
-        <f t="shared" si="9"/>
-        <v>-0.25000000000000006</v>
-      </c>
-      <c r="H34" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.36000000000000004</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="34">
-        <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E35" s="34">
-        <f t="shared" si="7"/>
-        <v>-1.9999999999999962E-2</v>
-      </c>
-      <c r="F35" s="34">
-        <f t="shared" si="8"/>
-        <v>-1.9999999999999962E-2</v>
-      </c>
-      <c r="G35" s="34">
-        <f t="shared" si="9"/>
-        <v>-3.999999999999998E-2</v>
-      </c>
-      <c r="H35" s="34">
-        <f t="shared" si="10"/>
-        <v>-8.9999999999999969E-2</v>
-      </c>
+      <c r="H35" s="34"/>
       <c r="J35" s="31"/>
       <c r="L35" s="31"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
       <c r="B36" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D36" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="34">
         <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E36" s="34">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="F36" s="34">
         <f t="shared" si="7"/>
-        <v>-1.999999999999999E-2</v>
-      </c>
-      <c r="F36" s="34">
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="G36" s="34">
         <f t="shared" si="8"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G36" s="34">
-        <f t="shared" si="9"/>
-        <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="H36" s="34">
-        <f t="shared" si="10"/>
-        <v>-6.9999999999999979E-2</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="H36" s="34"/>
       <c r="J36" s="31"/>
       <c r="L36" s="31"/>
       <c r="N36" s="31"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D37" s="34">
+        <f t="shared" si="5"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="E37" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="34">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="F37" s="34">
         <f t="shared" si="7"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="F37" s="34">
+        <v>-3.0000000000000013E-2</v>
+      </c>
+      <c r="G37" s="34">
         <f t="shared" si="8"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="G37" s="34">
-        <f t="shared" si="9"/>
-        <v>-1.999999999999999E-2</v>
-      </c>
-      <c r="H37" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.06</v>
-      </c>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="H37" s="34"/>
       <c r="J37" s="31"/>
       <c r="L37" s="31"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D38" s="34">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
+      <c r="E38" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="34">
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="F38" s="34">
         <f t="shared" si="7"/>
-        <v>-9.9999999999999534E-3</v>
-      </c>
-      <c r="F38" s="34">
+        <v>-0.12</v>
+      </c>
+      <c r="G38" s="34">
         <f t="shared" si="8"/>
-        <v>-1.9999999999999962E-2</v>
-      </c>
-      <c r="G38" s="34">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999999989E-2</v>
-      </c>
-      <c r="H38" s="34">
-        <f t="shared" si="10"/>
-        <v>-7.999999999999996E-2</v>
-      </c>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="H38" s="34"/>
       <c r="J38" s="31"/>
       <c r="L38" s="31"/>
       <c r="N38" s="31"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D39" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="34">
         <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E39" s="34">
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="F39" s="34">
         <f t="shared" si="7"/>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="F39" s="34">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="G39" s="34">
         <f t="shared" si="8"/>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="G39" s="34">
-        <f t="shared" si="9"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="H39" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.11000000000000004</v>
-      </c>
+        <v>-0.03</v>
+      </c>
+      <c r="H39" s="34"/>
       <c r="J39" s="31"/>
       <c r="L39" s="31"/>
       <c r="N39" s="31"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D40" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="34">
         <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E40" s="34">
+        <v>0</v>
+      </c>
+      <c r="F40" s="34">
         <f t="shared" si="7"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="F40" s="34">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G40" s="34">
         <f t="shared" si="8"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="G40" s="34">
-        <f t="shared" si="9"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="H40" s="34">
-        <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H40" s="34"/>
       <c r="J40" s="31"/>
       <c r="L40" s="31"/>
       <c r="N40" s="31"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D41" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="34">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F41" s="34">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="34">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="G41" s="34">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="H41" s="34"/>
       <c r="J41" s="31"/>
       <c r="L41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C42" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D42" s="34">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E42" s="34">
         <f t="shared" si="6"/>
-        <v>-9.9999999999998979E-3</v>
-      </c>
-      <c r="E42" s="34">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F42" s="34">
         <f t="shared" si="7"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="F42" s="34">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G42" s="34">
         <f t="shared" si="8"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="G42" s="34">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="H42" s="34">
-        <f t="shared" si="10"/>
-        <v>-8.9999999999999969E-2</v>
-      </c>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="H42" s="34"/>
       <c r="J42" s="31"/>
       <c r="L42" s="31"/>
       <c r="N42" s="31"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C43" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D43" s="34">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E43" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="F43" s="34">
         <f t="shared" si="7"/>
-        <v>-9.9999999999999534E-3</v>
-      </c>
-      <c r="F43" s="34">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G43" s="34">
         <f t="shared" si="8"/>
-        <v>-9.9999999999999534E-3</v>
-      </c>
-      <c r="G43" s="34">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999999989E-2</v>
-      </c>
-      <c r="H43" s="34">
-        <f t="shared" si="10"/>
-        <v>-7.999999999999996E-2</v>
-      </c>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="H43" s="34"/>
       <c r="J43" s="31"/>
       <c r="L43" s="31"/>
       <c r="N43" s="31"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D44" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="34">
         <f t="shared" si="6"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="E44" s="34">
+        <v>-1.9999999999999962E-2</v>
+      </c>
+      <c r="F44" s="34">
         <f t="shared" si="7"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="F44" s="34">
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="G44" s="34">
         <f t="shared" si="8"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="G44" s="34">
-        <f t="shared" si="9"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H44" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="H44" s="34"/>
       <c r="J44" s="31"/>
       <c r="L44" s="31"/>
       <c r="N44" s="31"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C45:C49" si="9">$C21-C21</f>
         <v>0</v>
       </c>
       <c r="D45" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="D45:D49" si="10">$C21-E21</f>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E45" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="E45:E49" si="11">$C21-G21</f>
+        <v>-2.9999999999999916E-2</v>
       </c>
       <c r="F45" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="F45:F49" si="12">$C21-I21</f>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="G45:G49" si="13">$C21-K21</f>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="H45" s="34"/>
       <c r="J45" s="31"/>
       <c r="L45" s="31"/>
       <c r="N45" s="31"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="31"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="31"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="31"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="31"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="34">
+        <f t="shared" si="11"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="F46" s="34">
+        <f t="shared" si="12"/>
+        <v>-2.9999999999999916E-2</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" si="13"/>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="J46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="34">
+        <f t="shared" si="11"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F47" s="34">
+        <f t="shared" si="12"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G47" s="34">
+        <f t="shared" si="13"/>
+        <v>-2.9999999999999971E-2</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="J47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="34">
+        <f t="shared" si="11"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F48" s="34">
+        <f t="shared" si="12"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="G48" s="34">
+        <f t="shared" si="13"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="J48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="J49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" s="31"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C51" s="31"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C52" s="31"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="31"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="31"/>
     </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="31"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="31"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C31:H45">
+  <conditionalFormatting sqref="C35:H49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4749,7 +4819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 J7 H7 L7 N7">
+  <conditionalFormatting sqref="D8 F8 J8 H8 L8 N8">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
